--- a/煙波0420.xlsx
+++ b/煙波0420.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlie\Desktop\煙波LakeshoreHotel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlie\Desktop\煙波LakeshoreHotel\IOTspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297BDADC-827C-47AF-B262-4A0FD45926EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672B0A53-F11B-4075-8BD8-9FB8D26B5DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文檔修改" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="158">
   <si>
     <t>日期</t>
   </si>
@@ -504,10 +504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打掃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>on</t>
   </si>
   <si>
@@ -518,23 +514,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>打開/關閉/停止窗簾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房卡插入後, 播放歡迎詞以及音樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式只支援開啟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">up / down </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臥室燈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吧檯燈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閱讀燈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴室燈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單切開關</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三切開關</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔卡斷電</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌燈 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌燈 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受控插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斷電插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電視</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開關</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIFI 斷通器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗簾馬達</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">拔卡等10秒後關插座通斷器 / 全部的燈 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*待確認</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>on/off</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>off/na</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打開/關閉/停止窗簾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打開/關閉/停止捲簾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>up</t>
+    <t>na</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -542,139 +643,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歡迎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房卡插入後, 播放歡迎詞以及音樂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模式只支援開啟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">up / down </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臥室燈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吧檯燈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>閱讀燈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴室燈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>na</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單切開關</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid for APK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wifi 通斷器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桌燈*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插卡取電</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拔卡斷設備</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三切*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一切*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wifi通斷器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打掃No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勿擾No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排插(缺)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/5~5/7 (6,7aiello出發)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歡迎詞?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通斷器*(2+1RCUside) ?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房卡(get)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左桌燈1(床頭燈?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右桌燈2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左三切開關</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右三切開關</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>■</t>
+    <t>off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,12 +707,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,8 +733,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="55">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -971,7 +964,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -980,7 +988,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -995,7 +1003,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1007,7 +1015,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1022,7 +1030,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1037,68 +1045,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1146,19 +1096,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1179,41 +1116,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1339,10 +1241,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1352,6 +1254,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1365,6 +1280,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1375,72 +1345,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1448,7 +1352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1565,9 +1469,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1580,160 +1481,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1774,82 +1680,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3430,595 +3303,532 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F5" sqref="F5"/>
+      <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="15.6328125" customWidth="1"/>
     <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="5" width="18.08984375" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" customWidth="1"/>
-    <col min="10" max="11" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="10" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
     <col min="12" max="12" width="16.54296875" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="10.6328125" customWidth="1"/>
     <col min="15" max="15" width="11.08984375" customWidth="1"/>
-    <col min="16" max="17" width="6.36328125" customWidth="1"/>
-    <col min="18" max="18" width="15.54296875" customWidth="1"/>
-    <col min="19" max="19" width="15.1796875" customWidth="1"/>
-    <col min="21" max="21" width="8.54296875" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" customWidth="1"/>
+    <col min="17" max="17" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="34.5" thickBot="1">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:17" ht="34">
+      <c r="A1" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" s="102" t="s">
+      <c r="E1" s="127" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="128"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="I1" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="J1" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" s="102" t="s">
+      <c r="K1" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1" s="106" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="102" t="s">
+      <c r="N1" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="102" t="s">
+      <c r="O1" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="102" t="s">
+      <c r="P1" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" s="107" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="138" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="136" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="63"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" s="102" t="s">
-        <v>114</v>
-      </c>
-      <c r="R1" s="102" t="s">
-        <v>130</v>
-      </c>
-      <c r="S1" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="U1" s="102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="130" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="77" t="s">
+      <c r="I2" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="88"/>
+      <c r="O2" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="140"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="143"/>
-      <c r="F2" s="106" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="57" t="s">
+      <c r="G3" s="133" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J3" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58" t="s">
+      <c r="K3" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="58" t="s">
+      <c r="N3" s="52"/>
+      <c r="O3" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="U2" s="59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="128"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="101" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="144"/>
-      <c r="F3" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="152" t="s">
-        <v>167</v>
-      </c>
-      <c r="H3" s="138" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3" s="53" t="s">
+      <c r="P3" s="52"/>
+      <c r="Q3" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="140"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="K3" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54" t="s">
+      <c r="J4" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54" t="s">
+      <c r="N4" s="52"/>
+      <c r="O4" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="U3" s="61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="128"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="97" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="145"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="K4" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="U4" s="61">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="128"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="97" t="s">
+      <c r="P4" s="52"/>
+      <c r="Q4" s="56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="140"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="145"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="53" t="s">
-        <v>125</v>
+      <c r="E5" s="54"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="J5" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54" t="s">
+      <c r="K5" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="N5" s="53"/>
-      <c r="O5" s="54" t="s">
+      <c r="P5" s="52"/>
+      <c r="Q5" s="56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="140"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="N6" s="53"/>
+      <c r="O6" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="140"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="N7" s="53"/>
+      <c r="O7" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="140"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="N8" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="U5" s="61">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="128"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="145"/>
-      <c r="F6" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="J6" s="53" t="s">
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="140"/>
+      <c r="B9" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q9" s="108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="17.5" thickBot="1">
+      <c r="A10" s="140"/>
+      <c r="B10" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="132"/>
+      <c r="D10" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="109" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="K6" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="L6" s="53"/>
-      <c r="M6" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="U6" s="61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="17.5" thickBot="1">
-      <c r="A7" s="128"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="135" t="s">
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="87">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17.5" thickBot="1">
+      <c r="A11" s="141"/>
+      <c r="B11" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="142" t="s">
-        <v>163</v>
-      </c>
-      <c r="E7" s="146" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="U7" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="17.5" thickBot="1">
-      <c r="A8" s="129"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="107" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="147" t="s">
-        <v>167</v>
-      </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="62"/>
-      <c r="U8" s="110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="17.5" thickBot="1">
-      <c r="A9" s="129"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="98" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="96"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="74" t="s">
+      <c r="D11" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="83"/>
+    </row>
+    <row r="12" spans="1:17" ht="17.5" thickBot="1">
+      <c r="A12" s="141"/>
+      <c r="B12" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="64"/>
+    </row>
+    <row r="13" spans="1:17" ht="17.5" thickBot="1">
+      <c r="A13" s="141"/>
+      <c r="B13" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="51.5" thickBot="1">
+      <c r="A14" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="93"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="J9" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="S9" s="104"/>
-      <c r="U9" s="105">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="17.5" thickBot="1">
-      <c r="A10" s="129"/>
-      <c r="B10" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="148"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="67"/>
-      <c r="U10" s="66"/>
-    </row>
-    <row r="11" spans="1:21" ht="17.5" thickBot="1">
-      <c r="A11" s="129"/>
-      <c r="B11" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="149"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q11" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="U11" s="80"/>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="129"/>
-      <c r="B12" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="150"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q12" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="U12" s="61"/>
-    </row>
-    <row r="13" spans="1:21" ht="17.5" thickBot="1">
-      <c r="A13" s="129"/>
-      <c r="B13" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="151"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="U13" s="85"/>
-    </row>
-    <row r="14" spans="1:21" ht="51.5" thickBot="1">
-      <c r="A14" s="129"/>
-      <c r="B14" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="127" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="U14" s="95"/>
-    </row>
-    <row r="15" spans="1:21" ht="17.5" thickBot="1">
-      <c r="A15" s="92" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="93"/>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="D16" s="141" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="141"/>
-      <c r="F16" t="s">
-        <v>149</v>
-      </c>
-      <c r="L16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" t="s">
+      <c r="L14" s="92" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" t="s">
-        <v>158</v>
-      </c>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="G3:G5"/>
+    <mergeCell ref="C2:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4030,13 +3840,13 @@
           <x14:formula1>
             <xm:f>標準項目表!$A$3:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C9 C1:C2 B12:B14 C6:C7</xm:sqref>
+          <xm:sqref>C1:C2 C8:C9 B13:B14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DAF3ED0B-86A0-4F13-8E81-3482F9EA320B}">
           <x14:formula1>
             <xm:f>標準項目表!$B$2:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B6 B1:B4 B8 B10:B14</xm:sqref>
+          <xm:sqref>B1:B2 B9 B11:B14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4060,21 +3870,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文件" ma:contentTypeID="0x01010042875E2F3E68A14A86A8297D40F0C58E" ma:contentTypeVersion="10" ma:contentTypeDescription="建立新的文件。" ma:contentTypeScope="" ma:versionID="87e0fe620f25c4d2f2dc2647e94a00fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6cf35b1c-fd49-4280-bc35-63b32cba1be3" xmlns:ns3="cc5b92a8-7123-4b68-8506-982d4ecfbbd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5146f074cc0dc58bddc110c64fce6508" ns2:_="" ns3:_="">
     <xsd:import namespace="6cf35b1c-fd49-4280-bc35-63b32cba1be3"/>
@@ -4277,24 +4072,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBF2DFAD-A0C4-4BB1-AA9A-51FC7298476C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F769C4-CD5F-4F7A-99C9-0AB72E1A3EE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D25AD65-C1B2-4589-AE6A-1ABFAF46DB9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4311,4 +4104,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F769C4-CD5F-4F7A-99C9-0AB72E1A3EE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBF2DFAD-A0C4-4BB1-AA9A-51FC7298476C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>